--- a/config.xlsx
+++ b/config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>商品名称</t>
   </si>
@@ -44,16 +44,10 @@
     <t>下载路径</t>
   </si>
   <si>
-    <t>半亩花田Q宝限定联名手霜滋润保湿持久留香氛补水防干裂伴手礼物</t>
+    <t>realme真我GT7 Pro新款学生电竞智能性价比官方旗舰店正品游戏防水手机高通骁龙8至尊版</t>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?ali_refid=a3_420860_1007%3A17991705%3AH%3A17991705_0_22304372531%3A2d64a0f843f2d4ceeeee41af90a4b597&amp;ali_trackid=319_2d64a0f843f2d4ceeeee41af90a4b597&amp;id=687955809042&amp;item_type=ad&amp;mi_id=0000j0XTRMVyqHswLGS9eN0BLvLboYK3J2RYgM88r6TCxJw&amp;mm_sceneid=0_0_17991705_0&amp;spm=tbpc.pc_sem_alimama%2Fa.201876.d6</t>
-  </si>
-  <si>
-    <t>【孙颖莎同款】多芬果奶沐浴露补水保湿氨基酸草莓青提干皮适用</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?ali_refid=a3_431358_1007%3A2945030008%3AH%3A560839984_0_21930841139%3A78f9ca1c28c17daecdbeb57dc2aafab1&amp;ali_trackid=296_78f9ca1c28c17daecdbeb57dc2aafab1&amp;id=887038757194&amp;item_type=ad&amp;mi_id=0000oKOJSOckXWnpikmpZELCk8RLdsgbgHV5iB2AOZyZv1c&amp;mm_sceneid=2_0_2945030008_0&amp;pvid=c1201d4c-6250-482b-b19a-5b64d47c2c7b&amp;scm=1007.40986.467924.0&amp;skuId=6089479462854&amp;spm=a21bo.jianhua%2Fa.201876.d5&amp;utparam=%7B%22item_ctr%22%3A0.006306%2C%22x_object_type%22%3A%22p4p_item%22%2C%22matchType%22%3A%22k2%22%2C%22item_price%22%3A%2228.76%22%2C%22item_cvr%22%3A0.052813%2C%22umpCalled%22%3Atrue%2C%22pc_scene%22%3A%2220001%22%2C%22userId%22%3A3483798162%2C%22ab_info%22%3A%2230986%23467924%230_30986%23528214%2358507_30986%23527892%2358418_30986%23528108%2358485_30986%23521582%2357267_30986%23526091%2358189_30986%23528938%2357910_30986%23530923%2359037_30986%23531826%2359017%22%2C%22tpp_buckets%22%3A%2230986%23467924%230_30986%23528214%2358507_30986%23527892%2358418_30986%23528108%2358485_30986%23521582%2357267_30986%23526091%2358189_30986%23528938%2357910_30986%23530923%2359037_30986%23531826%2359017%22%2C%22aplus_abtest%22%3A%22d818cbc605661b378b765eb48c0d5fb7%22%2C%22isLogin%22%3Atrue%2C%22abid%22%3A%22528214_527892_528108_521582_526091_528938_530923_531826%22%2C%22pc_pvid%22%3A%22c1201d4c-6250-482b-b19a-5b64d47c2c7b%22%2C%22isWeekLogin%22%3Afalse%2C%22rn%22%3A4%2C%22item_ecpm%22%3A0.016269%2C%22ump_price%22%3A%2228.76%22%2C%22isXClose%22%3Afalse%2C%22x_object_id%22%3A887038757194%7D&amp;xxc=ad_ct</t>
+    <t>https://detail.tmall.com/item.htm?abbucket=4&amp;id=838577791595&amp;mi_id=0000DpGP5w9EqxOFlC5dX77jUq6p8wLl64zMuTFykixSvGg&amp;ns=1&amp;priceTId=214787cc17640347250855996e1129&amp;skuId=5639845648822&amp;spm=a21n57.sem.item.3.20353903RFiIaF&amp;utparam=%7B%22aplus_abtest%22%3A%229448f36fa7a5fda704d8e6e8b154f216%22%7D&amp;xxc=taobaoSearch</t>
   </si>
 </sst>
 </file>
@@ -719,32 +713,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1289,7 +1274,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1297,7 +1282,7 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,232 +1295,224 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>500</v>
+      <c r="C2" s="2">
+        <v>200</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>500</v>
-      </c>
-      <c r="D3" s="5">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://detail.tmall.com/item.htm?ali_refid=a3_431358_1007%3A2945030008%3AH%3A560839984_0_21930841139%3A78f9ca1c28c17daecdbeb57dc2aafab1&amp;ali_trackid=296_78f9ca1c28c17daecdbeb57dc2aafab1&amp;id=887038757194&amp;item_type=ad&amp;mi_id=0000oKOJSOckXWnpikmpZELCk8RLdsgbgHV5iB2AOZyZv1c&amp;mm_sceneid=2_0_2945030008_0&amp;pvid=c1201d4c-6250-482b-b19a-5b64d47c2c7b&amp;scm=1007.40986.467924.0&amp;skuId=6089479462854&amp;spm=a21bo.jianhua%2Fa.201876.d5&amp;utparam=%7B%22item_ctr%22%3A0.006306%2C%22x_object_type%22%3A%22p4p_item%22%2C%22matchType%22%3A%22k2%22%2C%22item_price%22%3A%2228.76%22%2C%22item_cvr%22%3A0.052813%2C%22umpCalled%22%3Atrue%2C%22pc_scene%22%3A%2220001%22%2C%22userId%22%3A3483798162%2C%22ab_info%22%3A%2230986%23467924%230_30986%23528214%2358507_30986%23527892%2358418_30986%23528108%2358485_30986%23521582%2357267_30986%23526091%2358189_30986%23528938%2357910_30986%23530923%2359037_30986%23531826%2359017%22%2C%22tpp_buckets%22%3A%2230986%23467924%230_30986%23528214%2358507_30986%23527892%2358418_30986%23528108%235"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://detail.tmall.com/item.htm?abbucket=4&amp;id=838577791595&amp;mi_id=0000DpGP5w9EqxOFlC5dX77jUq6p8wLl64zMuTFykixSvGg&amp;ns=1&amp;priceTId=214787cc17640347250855996e1129&amp;skuId=5639845648822&amp;spm=a21n57.sem.item.3.20353903RFiIaF&amp;utparam=%7B%22aplus_abtest%22%3A%229448f36fa7a5fda704d8e6e8b154f216%22%7D&amp;xxc=taobaoSearch"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
